--- a/academycity/data/avic/datasets/excel/conference/output/GDP/2014_Exports_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/2014_Exports_o.xlsx
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -24800,7 +24800,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -32750,7 +32750,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -36287,7 +36287,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -39824,7 +39824,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -43381,7 +43381,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -49368,7 +49368,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -55583,7 +55583,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -64268,7 +64268,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -69659,7 +69659,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -75383,7 +75383,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -81107,7 +81107,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -83549,7 +83549,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
